--- a/biology/Zoologie/Corneille_à_bec_fin/Corneille_à_bec_fin.xlsx
+++ b/biology/Zoologie/Corneille_à_bec_fin/Corneille_à_bec_fin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_bec_fin</t>
+          <t>Corneille_à_bec_fin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Corneille à bec fin (Corvus enca) est une espèce d'oiseaux de la famille des Corvidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_bec_fin</t>
+          <t>Corneille_à_bec_fin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau assez mince de taille moyenne. Il a une taille de 40 à 47 cm et pour un poids de 220 à 285 g.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_bec_fin</t>
+          <t>Corneille_à_bec_fin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve aux Philippines, en Indonésie, en Malaisie et au Brunei. Elle vit dans des forêts de mangroves ou dans des forêts de plaine humides.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_bec_fin</t>
+          <t>Corneille_à_bec_fin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 février 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 février 2020) :
 sous-espèce Corvus enca celebensis Stresemann, 1936
 sous-espèce Corvus enca compilator Richmond, 1903
 sous-espèce Corvus enca enca (Horsfield, 1821)
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_bec_fin</t>
+          <t>Corneille_à_bec_fin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en + la) Thomas Horsfield, « XIV. Systematic Arrangement and Description of Birds from the Island of Java », Transactions of the Linnean Society of London, vol. 13, no 1,‎ juin 1821, p. 133–200 (ISSN 1945-9432, 1945-9335 et 1945-9432, DOI 10.1111/J.1095-8339.1821.TB00061.X, lire en ligne)</t>
         </is>
